--- a/TP1/TP1 DRAFTS/IFT2015_TEST_DATA.xlsx
+++ b/TP1/TP1 DRAFTS/IFT2015_TEST_DATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samir\Documents\GitHub\IFT-2015\TP1\TP1 DRAFTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2087595-8417-4BBB-BB7A-A5D5727F3015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB565B-E688-4DFE-932D-6712C097ADCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{975E041C-4F57-4F30-B5B8-498F4B4A6510}"/>
   </bookViews>
@@ -117,7 +117,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA" sz="2000"/>
-              <a:t>Empirical test result graph</a:t>
+              <a:t>Empirical test result</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -201,45 +201,28 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.5186471205928143E-2"/>
-                  <c:y val="-0.17018457672682705"/>
+                  <c:x val="4.8543057533322477E-2"/>
+                  <c:y val="-0.21102302436080222"/>
                 </c:manualLayout>
               </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:pPr>
-                      <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                        <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
-                        </a:solidFill>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:defRPr>
-                    </a:pPr>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="1400" b="1" baseline="0">
-                        <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>y = 0.0007n - 0.0404</a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="1400" b="1">
-                      <a:solidFill>
-                        <a:sysClr val="windowText" lastClr="000000"/>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -430,151 +413,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1738,8 +1721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8EB10F-955D-4FEF-B150-8EF99D7748B2}">
   <dimension ref="C1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="X33" sqref="X33"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="Y32" sqref="Y32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1749,7 +1732,7 @@
         <v>100</v>
       </c>
       <c r="D1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
@@ -1767,7 +1750,7 @@
         <v>200</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
@@ -1776,7 +1759,7 @@
         <v>250</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
@@ -1785,7 +1768,7 @@
         <v>300</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
@@ -1794,7 +1777,7 @@
         <v>350</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="3:4" x14ac:dyDescent="0.25">
@@ -1812,7 +1795,7 @@
         <v>450</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
@@ -1821,7 +1804,7 @@
         <v>500</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -1830,7 +1813,7 @@
         <v>550</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
@@ -1839,7 +1822,7 @@
         <v>600</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
@@ -1848,7 +1831,7 @@
         <v>650</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
@@ -1857,7 +1840,7 @@
         <v>700</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
@@ -1866,7 +1849,7 @@
         <v>750</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
@@ -1875,7 +1858,7 @@
         <v>800</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
@@ -1884,7 +1867,7 @@
         <v>850</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -1893,7 +1876,7 @@
         <v>900</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
@@ -1902,7 +1885,7 @@
         <v>950</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
@@ -1911,7 +1894,7 @@
         <v>1000</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
@@ -1920,7 +1903,7 @@
         <v>1050</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
@@ -1929,7 +1912,7 @@
         <v>1100</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
@@ -1938,7 +1921,7 @@
         <v>1150</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
@@ -1947,7 +1930,7 @@
         <v>1200</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
@@ -1956,7 +1939,7 @@
         <v>1250</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
@@ -1965,7 +1948,7 @@
         <v>1300</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
@@ -1974,7 +1957,7 @@
         <v>1350</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
@@ -1983,7 +1966,7 @@
         <v>1400</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
@@ -1992,7 +1975,7 @@
         <v>1450</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
@@ -2001,7 +1984,7 @@
         <v>1500</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
@@ -2010,7 +1993,7 @@
         <v>1550</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
@@ -2019,7 +2002,7 @@
         <v>1600</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
@@ -2028,7 +2011,7 @@
         <v>1650</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
@@ -2037,7 +2020,7 @@
         <v>1700</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
@@ -2046,7 +2029,7 @@
         <v>1750</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
@@ -2055,7 +2038,7 @@
         <v>1800</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
@@ -2064,7 +2047,7 @@
         <v>1850</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
@@ -2073,7 +2056,7 @@
         <v>1900</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
@@ -2082,7 +2065,7 @@
         <v>1950</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
@@ -2091,7 +2074,7 @@
         <v>2000</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
@@ -2100,7 +2083,7 @@
         <v>2050</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
@@ -2109,7 +2092,7 @@
         <v>2100</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
@@ -2118,7 +2101,7 @@
         <v>2150</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
@@ -2127,7 +2110,7 @@
         <v>2200</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
@@ -2136,7 +2119,7 @@
         <v>2250</v>
       </c>
       <c r="D44">
-        <v>2</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
@@ -2145,7 +2128,7 @@
         <v>2300</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
@@ -2154,7 +2137,7 @@
         <v>2350</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
@@ -2163,7 +2146,7 @@
         <v>2400</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
@@ -2172,7 +2155,7 @@
         <v>2450</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
@@ -2181,7 +2164,7 @@
         <v>2500</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/TP1/TP1 DRAFTS/IFT2015_TEST_DATA.xlsx
+++ b/TP1/TP1 DRAFTS/IFT2015_TEST_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Samir\Documents\GitHub\IFT-2015\TP1\TP1 DRAFTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECB565B-E688-4DFE-932D-6712C097ADCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198BEF7F-7A72-4B29-8A49-224B09CD47C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{975E041C-4F57-4F30-B5B8-498F4B4A6510}"/>
   </bookViews>
@@ -199,7 +199,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
@@ -213,7 +214,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -413,151 +415,151 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>22</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="27">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="44">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,6 +681,7 @@
         <c:axId val="984347296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1386,15 +1389,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>242886</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:colOff>157161</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1721,8 +1724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E8EB10F-955D-4FEF-B150-8EF99D7748B2}">
   <dimension ref="C1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
-      <selection activeCell="Y32" sqref="Y32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1732,7 +1735,7 @@
         <v>100</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
@@ -1741,7 +1744,7 @@
         <v>150</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.25">
@@ -1750,7 +1753,7 @@
         <v>200</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.25">
@@ -1759,7 +1762,7 @@
         <v>250</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="3:4" x14ac:dyDescent="0.25">
@@ -1768,7 +1771,7 @@
         <v>300</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="3:4" x14ac:dyDescent="0.25">
@@ -1786,7 +1789,7 @@
         <v>400</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="3:4" x14ac:dyDescent="0.25">
@@ -1795,7 +1798,7 @@
         <v>450</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="3:4" x14ac:dyDescent="0.25">
@@ -1804,7 +1807,7 @@
         <v>500</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="3:4" x14ac:dyDescent="0.25">
@@ -1813,7 +1816,7 @@
         <v>550</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="3:4" x14ac:dyDescent="0.25">
@@ -1822,7 +1825,7 @@
         <v>600</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="3:4" x14ac:dyDescent="0.25">
@@ -1831,7 +1834,7 @@
         <v>650</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:4" x14ac:dyDescent="0.25">
@@ -1840,7 +1843,7 @@
         <v>700</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
@@ -1849,7 +1852,7 @@
         <v>750</v>
       </c>
       <c r="D14">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="3:4" x14ac:dyDescent="0.25">
@@ -1858,7 +1861,7 @@
         <v>800</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="3:4" x14ac:dyDescent="0.25">
@@ -1867,7 +1870,7 @@
         <v>850</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -1876,7 +1879,7 @@
         <v>900</v>
       </c>
       <c r="D17">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
@@ -1885,7 +1888,7 @@
         <v>950</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
@@ -1903,7 +1906,7 @@
         <v>1050</v>
       </c>
       <c r="D20">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
@@ -1912,7 +1915,7 @@
         <v>1100</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
@@ -1921,7 +1924,7 @@
         <v>1150</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
@@ -1930,7 +1933,7 @@
         <v>1200</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
@@ -1939,7 +1942,7 @@
         <v>1250</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
@@ -1948,7 +1951,7 @@
         <v>1300</v>
       </c>
       <c r="D25">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
@@ -1957,7 +1960,7 @@
         <v>1350</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.25">
@@ -1966,7 +1969,7 @@
         <v>1400</v>
       </c>
       <c r="D27">
-        <v>60</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.25">
@@ -1975,7 +1978,7 @@
         <v>1450</v>
       </c>
       <c r="D28">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.25">
@@ -1984,7 +1987,7 @@
         <v>1500</v>
       </c>
       <c r="D29">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.25">
@@ -1993,7 +1996,7 @@
         <v>1550</v>
       </c>
       <c r="D30">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.25">
@@ -2002,7 +2005,7 @@
         <v>1600</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.25">
@@ -2011,7 +2014,7 @@
         <v>1650</v>
       </c>
       <c r="D32">
-        <v>60</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="3:4" x14ac:dyDescent="0.25">
@@ -2020,7 +2023,7 @@
         <v>1700</v>
       </c>
       <c r="D33">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="3:4" x14ac:dyDescent="0.25">
@@ -2029,7 +2032,7 @@
         <v>1750</v>
       </c>
       <c r="D34">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="3:4" x14ac:dyDescent="0.25">
@@ -2038,7 +2041,7 @@
         <v>1800</v>
       </c>
       <c r="D35">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="3:4" x14ac:dyDescent="0.25">
@@ -2047,7 +2050,7 @@
         <v>1850</v>
       </c>
       <c r="D36">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="3:4" x14ac:dyDescent="0.25">
@@ -2056,7 +2059,7 @@
         <v>1900</v>
       </c>
       <c r="D37">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="3:4" x14ac:dyDescent="0.25">
@@ -2065,7 +2068,7 @@
         <v>1950</v>
       </c>
       <c r="D38">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="3:4" x14ac:dyDescent="0.25">
@@ -2074,7 +2077,7 @@
         <v>2000</v>
       </c>
       <c r="D39">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="3:4" x14ac:dyDescent="0.25">
@@ -2083,7 +2086,7 @@
         <v>2050</v>
       </c>
       <c r="D40">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="3:4" x14ac:dyDescent="0.25">
@@ -2092,7 +2095,7 @@
         <v>2100</v>
       </c>
       <c r="D41">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="3:4" x14ac:dyDescent="0.25">
@@ -2101,7 +2104,7 @@
         <v>2150</v>
       </c>
       <c r="D42">
-        <v>72</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="3:4" x14ac:dyDescent="0.25">
@@ -2110,7 +2113,7 @@
         <v>2200</v>
       </c>
       <c r="D43">
-        <v>102</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="3:4" x14ac:dyDescent="0.25">
@@ -2119,7 +2122,7 @@
         <v>2250</v>
       </c>
       <c r="D44">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="3:4" x14ac:dyDescent="0.25">
@@ -2128,7 +2131,7 @@
         <v>2300</v>
       </c>
       <c r="D45">
-        <v>84</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="3:4" x14ac:dyDescent="0.25">
@@ -2137,7 +2140,7 @@
         <v>2350</v>
       </c>
       <c r="D46">
-        <v>105</v>
+        <v>67</v>
       </c>
     </row>
     <row r="47" spans="3:4" x14ac:dyDescent="0.25">
@@ -2146,7 +2149,7 @@
         <v>2400</v>
       </c>
       <c r="D47">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="48" spans="3:4" x14ac:dyDescent="0.25">
@@ -2155,7 +2158,7 @@
         <v>2450</v>
       </c>
       <c r="D48">
-        <v>96</v>
+        <v>69</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.25">
@@ -2164,7 +2167,7 @@
         <v>2500</v>
       </c>
       <c r="D49">
-        <v>96</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
